--- a/DataSets/Marilao shelter data.xlsx
+++ b/DataSets/Marilao shelter data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\BRYAN\bulsu\Thesis 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\BRYAN\bulsu\Thesis 1\ShelterAlloc_Thesis\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C19609F-FB6C-4FAF-A435-B7F907912FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6CBF72-259A-4A64-95AF-1F63CF46A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="1035" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Remarks</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>Census from PSA for Bulacan</t>
-  </si>
-  <si>
-    <t>xDegrees</t>
-  </si>
-  <si>
-    <t>yDegrees</t>
   </si>
   <si>
     <t>Name</t>
@@ -116,9 +110,6 @@
   </si>
   <si>
     <t>Abangan Sur Elementary School</t>
-  </si>
-  <si>
-    <t>Abangan Sur Covered Court</t>
   </si>
   <si>
     <t>Ibayo Elementary School</t>
@@ -167,6 +158,12 @@
   </si>
   <si>
     <t>FSS Patulo Elementary School</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
@@ -473,10 +470,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1000"/>
+  <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -489,37 +486,37 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -538,7 +535,7 @@
     </row>
     <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>14.7718799806491</v>
@@ -568,12 +565,12 @@
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>14.775252992136499</v>
@@ -603,12 +600,12 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>14.7712372258247</v>
@@ -638,12 +635,12 @@
         <v>1</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>14.769618908499501</v>
@@ -673,12 +670,12 @@
         <v>1</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>14.764714339619699</v>
@@ -708,21 +705,21 @@
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14.7535649557989</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>120.959816737558</v>
       </c>
       <c r="D7">
-        <v>525</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -743,21 +740,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>14.7535649557989</v>
+        <v>14.7713627238379</v>
       </c>
       <c r="C8">
-        <v>120.959816737558</v>
+        <v>120.97521021538699</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -778,21 +775,21 @@
         <v>1</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>14.7713627238379</v>
+        <v>14.762777944714299</v>
       </c>
       <c r="C9">
-        <v>120.97521021538699</v>
+        <v>120.965390844846</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -813,21 +810,21 @@
         <v>1</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>14.762777944714299</v>
+        <v>14.783955314095699</v>
       </c>
       <c r="C10">
-        <v>120.965390844846</v>
+        <v>121.02706273692399</v>
       </c>
       <c r="D10">
-        <v>448</v>
+        <v>300</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -848,21 +845,21 @@
         <v>1</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>14.783955314095699</v>
+        <v>14.7549081782114</v>
       </c>
       <c r="C11">
-        <v>121.02706273692399</v>
+        <v>120.94919107604299</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -883,21 +880,21 @@
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>14.7549081782114</v>
+        <v>14.7523618894178</v>
       </c>
       <c r="C12">
-        <v>120.94919107604299</v>
+        <v>120.95078829138799</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -918,21 +915,21 @@
         <v>1</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>14.7523618894178</v>
+        <v>14.7788884149633</v>
       </c>
       <c r="C13">
-        <v>120.95078829138799</v>
+        <v>120.960345299663</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -953,18 +950,18 @@
         <v>1</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>14.7788884149633</v>
+        <v>14.757300686139599</v>
       </c>
       <c r="C14">
-        <v>120.960345299663</v>
+        <v>120.948177254006</v>
       </c>
       <c r="D14">
         <v>75</v>
@@ -988,21 +985,21 @@
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>14.757300686139599</v>
+        <v>14.759696361212599</v>
       </c>
       <c r="C15">
-        <v>120.948177254006</v>
+        <v>120.94380312195401</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>1800</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1023,21 +1020,21 @@
         <v>1</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>14.759696361212599</v>
+        <v>14.783636298137299</v>
       </c>
       <c r="C16">
-        <v>120.94380312195401</v>
+        <v>120.984338290888</v>
       </c>
       <c r="D16">
-        <v>1800</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1058,21 +1055,21 @@
         <v>1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>14.783636298137299</v>
+        <v>14.765465938427001</v>
       </c>
       <c r="C17">
-        <v>120.984338290888</v>
+        <v>120.95619816761101</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1093,21 +1090,21 @@
         <v>1</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>14.765465938427001</v>
+        <v>14.764617728072199</v>
       </c>
       <c r="C18">
-        <v>120.95619816761101</v>
+        <v>120.954403339867</v>
       </c>
       <c r="D18">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1128,21 +1125,21 @@
         <v>1</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>14.764617728072199</v>
+        <v>14.778956209200601</v>
       </c>
       <c r="C19">
-        <v>120.954403339867</v>
+        <v>120.973228584392</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1163,21 +1160,21 @@
         <v>1</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20">
-        <v>14.778956209200601</v>
+        <v>14.7865722729873</v>
       </c>
       <c r="C20">
-        <v>120.973228584392</v>
+        <v>120.968978114161</v>
       </c>
       <c r="D20">
-        <v>200</v>
+        <v>1615</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1198,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -1206,13 +1203,13 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>14.7865722729873</v>
+        <v>14.7656033896092</v>
       </c>
       <c r="C21">
-        <v>120.968978114161</v>
+        <v>120.948513036352</v>
       </c>
       <c r="D21">
-        <v>1615</v>
+        <v>272</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1233,21 +1230,21 @@
         <v>1</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>14.7656033896092</v>
+        <v>14.7652274561484</v>
       </c>
       <c r="C22">
-        <v>120.948513036352</v>
+        <v>120.948821314155</v>
       </c>
       <c r="D22">
-        <v>272</v>
+        <v>798</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1268,45 +1265,14 @@
         <v>1</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>14.7652274561484</v>
-      </c>
-      <c r="C23">
-        <v>120.948821314155</v>
-      </c>
-      <c r="D23">
-        <v>798</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5206,10 +5172,6 @@
     <row r="999" spans="4:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D999" s="2"/>
       <c r="E999" s="2"/>
-    </row>
-    <row r="1000" spans="4:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/DataSets/Marilao shelter data.xlsx
+++ b/DataSets/Marilao shelter data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\BRYAN\bulsu\Thesis 1\ShelterAlloc_Thesis\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6CBF72-259A-4A64-95AF-1F63CF46A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5946BD-5082-4500-AAFB-200E064768BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -538,21 +538,24 @@
         <v>20</v>
       </c>
       <c r="B2">
+        <v>120.94091440622999</v>
+      </c>
+      <c r="C2">
         <v>14.7718799806491</v>
-      </c>
-      <c r="C2">
-        <v>120.94091440622999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <f>7700 * D2</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>2*D2</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>60000*D2</f>
         <v>0</v>
       </c>
       <c r="H2" t="b">
@@ -573,22 +576,25 @@
         <v>22</v>
       </c>
       <c r="B3">
+        <v>120.94426552157699</v>
+      </c>
+      <c r="C3">
         <v>14.775252992136499</v>
-      </c>
-      <c r="C3">
-        <v>120.94426552157699</v>
       </c>
       <c r="D3">
         <v>240</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f t="shared" ref="E3:E22" si="0">7700 * D3</f>
+        <v>1848000</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f t="shared" ref="F3:F22" si="1">2*D3</f>
+        <v>480</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f t="shared" ref="G3:G22" si="2">60000*D3</f>
+        <v>14400000</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -608,21 +614,24 @@
         <v>23</v>
       </c>
       <c r="B4">
+        <v>120.943458029502</v>
+      </c>
+      <c r="C4">
         <v>14.7712372258247</v>
-      </c>
-      <c r="C4">
-        <v>120.943458029502</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H4" t="b">
@@ -643,21 +652,24 @@
         <v>24</v>
       </c>
       <c r="B5">
+        <v>120.93696006008599</v>
+      </c>
+      <c r="C5">
         <v>14.769618908499501</v>
-      </c>
-      <c r="C5">
-        <v>120.93696006008599</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" t="b">
@@ -678,22 +690,25 @@
         <v>25</v>
       </c>
       <c r="B6">
+        <v>120.942286137427</v>
+      </c>
+      <c r="C6">
         <v>14.764714339619699</v>
-      </c>
-      <c r="C6">
-        <v>120.942286137427</v>
       </c>
       <c r="D6">
         <v>720</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5544000</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1440</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>43200000</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -713,22 +728,25 @@
         <v>26</v>
       </c>
       <c r="B7">
+        <v>120.959816737558</v>
+      </c>
+      <c r="C7">
         <v>14.7535649557989</v>
-      </c>
-      <c r="C7">
-        <v>120.959816737558</v>
       </c>
       <c r="D7">
         <v>150</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1155000</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9000000</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -748,21 +766,24 @@
         <v>27</v>
       </c>
       <c r="B8">
+        <v>120.97521021538699</v>
+      </c>
+      <c r="C8">
         <v>14.7713627238379</v>
-      </c>
-      <c r="C8">
-        <v>120.97521021538699</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" t="b">
@@ -783,22 +804,25 @@
         <v>28</v>
       </c>
       <c r="B9">
+        <v>120.965390844846</v>
+      </c>
+      <c r="C9">
         <v>14.762777944714299</v>
-      </c>
-      <c r="C9">
-        <v>120.965390844846</v>
       </c>
       <c r="D9">
         <v>448</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3449600</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>896</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>26880000</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -818,22 +842,25 @@
         <v>41</v>
       </c>
       <c r="B10">
+        <v>121.02706273692399</v>
+      </c>
+      <c r="C10">
         <v>14.783955314095699</v>
-      </c>
-      <c r="C10">
-        <v>121.02706273692399</v>
       </c>
       <c r="D10">
         <v>300</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2310000</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>18000000</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -853,21 +880,24 @@
         <v>29</v>
       </c>
       <c r="B11">
+        <v>120.94919107604299</v>
+      </c>
+      <c r="C11">
         <v>14.7549081782114</v>
-      </c>
-      <c r="C11">
-        <v>120.94919107604299</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" t="b">
@@ -888,22 +918,25 @@
         <v>39</v>
       </c>
       <c r="B12">
+        <v>120.95078829138799</v>
+      </c>
+      <c r="C12">
         <v>14.7523618894178</v>
-      </c>
-      <c r="C12">
-        <v>120.95078829138799</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>770000</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6000000</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -923,22 +956,25 @@
         <v>30</v>
       </c>
       <c r="B13">
+        <v>120.960345299663</v>
+      </c>
+      <c r="C13">
         <v>14.7788884149633</v>
-      </c>
-      <c r="C13">
-        <v>120.960345299663</v>
       </c>
       <c r="D13">
         <v>75</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>577500</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4500000</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -958,22 +994,25 @@
         <v>31</v>
       </c>
       <c r="B14">
+        <v>120.948177254006</v>
+      </c>
+      <c r="C14">
         <v>14.757300686139599</v>
-      </c>
-      <c r="C14">
-        <v>120.948177254006</v>
       </c>
       <c r="D14">
         <v>75</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>577500</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4500000</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -993,22 +1032,25 @@
         <v>32</v>
       </c>
       <c r="B15">
+        <v>120.94380312195401</v>
+      </c>
+      <c r="C15">
         <v>14.759696361212599</v>
-      </c>
-      <c r="C15">
-        <v>120.94380312195401</v>
       </c>
       <c r="D15">
         <v>1800</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13860000</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3600</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>108000000</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -1028,22 +1070,25 @@
         <v>33</v>
       </c>
       <c r="B16">
+        <v>120.984338290888</v>
+      </c>
+      <c r="C16">
         <v>14.783636298137299</v>
-      </c>
-      <c r="C16">
-        <v>120.984338290888</v>
       </c>
       <c r="D16">
         <v>120</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>924000</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7200000</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1063,22 +1108,25 @@
         <v>34</v>
       </c>
       <c r="B17">
+        <v>120.95619816761101</v>
+      </c>
+      <c r="C17">
         <v>14.765465938427001</v>
-      </c>
-      <c r="C17">
-        <v>120.95619816761101</v>
       </c>
       <c r="D17">
         <v>500</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3850000</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1098,21 +1146,24 @@
         <v>35</v>
       </c>
       <c r="B18">
+        <v>120.954403339867</v>
+      </c>
+      <c r="C18">
         <v>14.764617728072199</v>
-      </c>
-      <c r="C18">
-        <v>120.954403339867</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" t="b">
@@ -1133,22 +1184,25 @@
         <v>36</v>
       </c>
       <c r="B19">
+        <v>120.973228584392</v>
+      </c>
+      <c r="C19">
         <v>14.778956209200601</v>
-      </c>
-      <c r="C19">
-        <v>120.973228584392</v>
       </c>
       <c r="D19">
         <v>200</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1540000</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12000000</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
@@ -1168,22 +1222,25 @@
         <v>37</v>
       </c>
       <c r="B20">
+        <v>120.968978114161</v>
+      </c>
+      <c r="C20">
         <v>14.7865722729873</v>
-      </c>
-      <c r="C20">
-        <v>120.968978114161</v>
       </c>
       <c r="D20">
         <v>1615</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12435500</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3230</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>96900000</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
@@ -1203,22 +1260,25 @@
         <v>40</v>
       </c>
       <c r="B21">
+        <v>120.948513036352</v>
+      </c>
+      <c r="C21">
         <v>14.7656033896092</v>
-      </c>
-      <c r="C21">
-        <v>120.948513036352</v>
       </c>
       <c r="D21">
         <v>272</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2094400</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>544</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>16320000</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1238,22 +1298,25 @@
         <v>38</v>
       </c>
       <c r="B22">
+        <v>120.948821314155</v>
+      </c>
+      <c r="C22">
         <v>14.7652274561484</v>
-      </c>
-      <c r="C22">
-        <v>120.948821314155</v>
       </c>
       <c r="D22">
         <v>798</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6144600</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1596</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>47880000</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>

--- a/DataSets/Marilao shelter data.xlsx
+++ b/DataSets/Marilao shelter data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\BRYAN\bulsu\Thesis 1\ShelterAlloc_Thesis\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5946BD-5082-4500-AAFB-200E064768BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989421F-3FA8-467C-9592-FD51CD818DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -538,10 +538,10 @@
         <v>20</v>
       </c>
       <c r="B2">
+        <v>14.7718799806491</v>
+      </c>
+      <c r="C2">
         <v>120.94091440622999</v>
-      </c>
-      <c r="C2">
-        <v>14.7718799806491</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>22</v>
       </c>
       <c r="B3">
+        <v>14.775252992136499</v>
+      </c>
+      <c r="C3">
         <v>120.94426552157699</v>
-      </c>
-      <c r="C3">
-        <v>14.775252992136499</v>
       </c>
       <c r="D3">
         <v>240</v>
@@ -614,10 +614,10 @@
         <v>23</v>
       </c>
       <c r="B4">
+        <v>14.7712372258247</v>
+      </c>
+      <c r="C4">
         <v>120.943458029502</v>
-      </c>
-      <c r="C4">
-        <v>14.7712372258247</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -652,10 +652,10 @@
         <v>24</v>
       </c>
       <c r="B5">
+        <v>14.769618908499501</v>
+      </c>
+      <c r="C5">
         <v>120.93696006008599</v>
-      </c>
-      <c r="C5">
-        <v>14.769618908499501</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>25</v>
       </c>
       <c r="B6">
+        <v>14.764714339619699</v>
+      </c>
+      <c r="C6">
         <v>120.942286137427</v>
-      </c>
-      <c r="C6">
-        <v>14.764714339619699</v>
       </c>
       <c r="D6">
         <v>720</v>
@@ -728,10 +728,10 @@
         <v>26</v>
       </c>
       <c r="B7">
+        <v>14.7535649557989</v>
+      </c>
+      <c r="C7">
         <v>120.959816737558</v>
-      </c>
-      <c r="C7">
-        <v>14.7535649557989</v>
       </c>
       <c r="D7">
         <v>150</v>
@@ -766,10 +766,10 @@
         <v>27</v>
       </c>
       <c r="B8">
+        <v>14.7713627238379</v>
+      </c>
+      <c r="C8">
         <v>120.97521021538699</v>
-      </c>
-      <c r="C8">
-        <v>14.7713627238379</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>28</v>
       </c>
       <c r="B9">
+        <v>14.762777944714299</v>
+      </c>
+      <c r="C9">
         <v>120.965390844846</v>
-      </c>
-      <c r="C9">
-        <v>14.762777944714299</v>
       </c>
       <c r="D9">
         <v>448</v>
@@ -842,10 +842,10 @@
         <v>41</v>
       </c>
       <c r="B10">
+        <v>14.783955314095699</v>
+      </c>
+      <c r="C10">
         <v>121.02706273692399</v>
-      </c>
-      <c r="C10">
-        <v>14.783955314095699</v>
       </c>
       <c r="D10">
         <v>300</v>
@@ -880,10 +880,10 @@
         <v>29</v>
       </c>
       <c r="B11">
+        <v>14.7549081782114</v>
+      </c>
+      <c r="C11">
         <v>120.94919107604299</v>
-      </c>
-      <c r="C11">
-        <v>14.7549081782114</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>39</v>
       </c>
       <c r="B12">
+        <v>14.7523618894178</v>
+      </c>
+      <c r="C12">
         <v>120.95078829138799</v>
-      </c>
-      <c r="C12">
-        <v>14.7523618894178</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -956,10 +956,10 @@
         <v>30</v>
       </c>
       <c r="B13">
+        <v>14.7788884149633</v>
+      </c>
+      <c r="C13">
         <v>120.960345299663</v>
-      </c>
-      <c r="C13">
-        <v>14.7788884149633</v>
       </c>
       <c r="D13">
         <v>75</v>
@@ -994,10 +994,10 @@
         <v>31</v>
       </c>
       <c r="B14">
+        <v>14.757300686139599</v>
+      </c>
+      <c r="C14">
         <v>120.948177254006</v>
-      </c>
-      <c r="C14">
-        <v>14.757300686139599</v>
       </c>
       <c r="D14">
         <v>75</v>
@@ -1032,10 +1032,10 @@
         <v>32</v>
       </c>
       <c r="B15">
+        <v>14.759696361212599</v>
+      </c>
+      <c r="C15">
         <v>120.94380312195401</v>
-      </c>
-      <c r="C15">
-        <v>14.759696361212599</v>
       </c>
       <c r="D15">
         <v>1800</v>
@@ -1070,10 +1070,10 @@
         <v>33</v>
       </c>
       <c r="B16">
+        <v>14.783636298137299</v>
+      </c>
+      <c r="C16">
         <v>120.984338290888</v>
-      </c>
-      <c r="C16">
-        <v>14.783636298137299</v>
       </c>
       <c r="D16">
         <v>120</v>
@@ -1108,10 +1108,10 @@
         <v>34</v>
       </c>
       <c r="B17">
+        <v>14.765465938427001</v>
+      </c>
+      <c r="C17">
         <v>120.95619816761101</v>
-      </c>
-      <c r="C17">
-        <v>14.765465938427001</v>
       </c>
       <c r="D17">
         <v>500</v>
@@ -1146,10 +1146,10 @@
         <v>35</v>
       </c>
       <c r="B18">
+        <v>14.764617728072199</v>
+      </c>
+      <c r="C18">
         <v>120.954403339867</v>
-      </c>
-      <c r="C18">
-        <v>14.764617728072199</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>36</v>
       </c>
       <c r="B19">
+        <v>14.778956209200601</v>
+      </c>
+      <c r="C19">
         <v>120.973228584392</v>
-      </c>
-      <c r="C19">
-        <v>14.778956209200601</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -1222,10 +1222,10 @@
         <v>37</v>
       </c>
       <c r="B20">
+        <v>14.7865722729873</v>
+      </c>
+      <c r="C20">
         <v>120.968978114161</v>
-      </c>
-      <c r="C20">
-        <v>14.7865722729873</v>
       </c>
       <c r="D20">
         <v>1615</v>
@@ -1260,10 +1260,10 @@
         <v>40</v>
       </c>
       <c r="B21">
+        <v>14.7656033896092</v>
+      </c>
+      <c r="C21">
         <v>120.948513036352</v>
-      </c>
-      <c r="C21">
-        <v>14.7656033896092</v>
       </c>
       <c r="D21">
         <v>272</v>
@@ -1298,10 +1298,10 @@
         <v>38</v>
       </c>
       <c r="B22">
+        <v>14.7652274561484</v>
+      </c>
+      <c r="C22">
         <v>120.948821314155</v>
-      </c>
-      <c r="C22">
-        <v>14.7652274561484</v>
       </c>
       <c r="D22">
         <v>798</v>
